--- a/zvnl-2009.xlsx
+++ b/zvnl-2009.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820D1F9A-5313-4189-9F0A-EB2529C8CA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AD8BCF-200E-458C-AC06-828B749B503D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="2055" windowWidth="21503" windowHeight="12975" xr2:uid="{9EB046AB-1F2A-445C-8D11-2727B0F917E9}"/>
+    <workbookView xWindow="3675" yWindow="2625" windowWidth="21503" windowHeight="12975" xr2:uid="{9EB046AB-1F2A-445C-8D11-2727B0F917E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Naam</t>
   </si>
@@ -99,6 +99,19 @@
   <si>
     <t>Tb:
 - 3600 Tbu-Tb</t>
+  </si>
+  <si>
+    <t>(geen)</t>
+  </si>
+  <si>
+    <t>nvt</t>
+  </si>
+  <si>
+    <t>- Ehv
+- Tb?</t>
+  </si>
+  <si>
+    <t>Nvt</t>
   </si>
 </sst>
 </file>
@@ -148,24 +161,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -483,7 +495,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -496,7 +508,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -504,7 +516,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -512,29 +524,29 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="5"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
@@ -546,22 +558,29 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -569,30 +588,46 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
